--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_20-32.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_20-32.xlsx
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:6</t>
   </si>
   <si>
     <t>FERRODUONAL 30 CAP</t>
@@ -1980,17 +1986,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1998,7 +2004,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2012,11 +2018,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2024,7 +2030,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2038,11 +2044,11 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2050,7 +2056,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2058,17 +2064,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2076,7 +2082,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2084,17 +2090,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2102,7 +2108,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2116,7 +2122,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2128,7 +2134,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2136,13 +2142,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2154,7 +2160,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2162,13 +2168,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2180,7 +2186,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2188,17 +2194,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2214,17 +2220,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2232,7 +2238,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2240,17 +2246,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2266,17 +2272,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2284,7 +2290,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2292,13 +2298,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2310,7 +2316,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2318,13 +2324,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2336,7 +2342,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2344,13 +2350,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2362,7 +2368,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2370,13 +2376,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2388,7 +2394,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2396,13 +2402,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2414,7 +2420,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2422,17 +2428,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2440,7 +2446,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2448,13 +2454,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2466,7 +2472,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2474,17 +2480,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>22.079999999999998</v>
+        <v>31</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2492,7 +2498,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2500,17 +2506,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>29</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2526,17 +2532,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2544,7 +2550,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2552,13 +2558,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2570,7 +2576,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2578,13 +2584,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2596,7 +2602,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2604,13 +2610,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2622,7 +2628,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2630,17 +2636,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2656,17 +2662,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2674,7 +2680,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2682,17 +2688,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2700,7 +2706,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2708,17 +2714,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2726,7 +2732,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2734,17 +2740,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2752,7 +2758,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2760,17 +2766,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2778,7 +2784,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2786,17 +2792,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2804,7 +2810,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2812,17 +2818,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2830,7 +2836,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2838,17 +2844,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2864,17 +2870,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2882,7 +2888,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2890,17 +2896,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2908,7 +2914,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2916,17 +2922,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2934,7 +2940,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2948,11 +2954,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2960,7 +2966,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2968,13 +2974,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2994,17 +3000,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3012,7 +3018,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3020,17 +3026,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>7.5</v>
+        <v>66</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3046,17 +3052,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>48</v>
+        <v>7.5</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3064,7 +3070,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3078,11 +3084,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3090,7 +3096,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3098,17 +3104,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3116,7 +3122,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3130,7 +3136,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3142,7 +3148,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3150,13 +3156,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3168,7 +3174,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3176,17 +3182,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3202,17 +3208,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>121</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3228,17 +3234,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3246,7 +3252,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3254,17 +3260,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3272,7 +3278,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3280,7 +3286,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -3290,7 +3296,7 @@
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3298,7 +3304,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3306,13 +3312,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3324,7 +3330,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3332,17 +3338,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3350,7 +3356,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3358,17 +3364,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3384,13 +3390,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3402,7 +3408,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3410,13 +3416,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3428,7 +3434,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3436,13 +3442,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3454,7 +3460,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3462,17 +3468,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3488,17 +3494,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3506,7 +3512,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3514,51 +3520,77 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="K101" s="10">
-        <v>7020.7299999999996</v>
-      </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="11">
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
         <v>139</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c t="s" r="F102" s="12">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
         <v>140</v>
       </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="13"/>
-      <c t="s" r="I102" s="14">
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>45</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" ht="26.25" customHeight="1">
+      <c r="K102" s="10">
+        <v>7024.7299999999996</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="11">
         <v>141</v>
       </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c t="s" r="F103" s="12">
+        <v>142</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c t="s" r="I103" s="14">
+        <v>143</v>
+      </c>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="305">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3857,10 +3889,13 @@
     <mergeCell ref="B100:G100"/>
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="I102:N102"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:N103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
